--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B8EBE-77D5-46F0-809D-F97D4E45A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2166,7 +2166,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Safety"/>
@@ -2179,7 +2179,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Comparisons"/>
@@ -2222,7 +2222,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -2287,7 +2287,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PROVP"/>
@@ -2300,7 +2300,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -2373,7 +2373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INPUTS"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -2452,7 +2452,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Config"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Contents"/>
@@ -2478,7 +2478,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Targets_byFleet"/>
@@ -2491,9 +2491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2531,9 +2531,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2566,26 +2566,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2618,26 +2601,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2813,21 +2779,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2835,147 +2801,147 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3000,22 +2966,22 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="33" width="14.1796875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.453125" style="8"/>
+    <col min="1" max="1" width="9.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="14.19921875" style="8" customWidth="1"/>
+    <col min="34" max="35" width="11.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.46484375" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3079,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3177,7 @@
         <v>5701.9614259999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +3275,7 @@
         <v>9346.6884769999997</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
       <c r="C7" s="8">
         <v>12281.508301</v>
       </c>
@@ -3404,7 +3370,7 @@
         <v>15048.649903</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
@@ -3502,7 +3468,7 @@
         <v>0.37890185915371016</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3600,7 +3566,7 @@
         <v>0.62109814084628989</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3575,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3676,7 @@
         <v>5.2311099999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3774,7 @@
         <v>4.4015519999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3872,7 @@
         <v>0.13885448</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +3970,7 @@
         <v>0.33331726000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
@@ -4102,7 +4068,7 @@
         <v>0.11286979999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -4203,7 +4169,7 @@
         <v>9.1554599999999989E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -4301,7 +4267,7 @@
         <v>0.29214037000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4365,7 @@
         <v>6.4415600000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
@@ -4595,7 +4561,7 @@
         <v>3.3520629999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
@@ -4693,7 +4659,7 @@
         <v>0.21498138</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -4791,7 +4757,7 @@
         <v>3.8551540000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
@@ -4889,7 +4855,7 @@
         <v>3.9426370000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4987,7 +4953,7 @@
         <v>3.9069489999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
@@ -5085,7 +5051,7 @@
         <v>4.3252079999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5149,7 @@
         <v>0.22664550999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -5281,13 +5247,13 @@
         <v>0.36455269000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5262,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5360,7 @@
         <v>1.9820773044375646E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5458,7 @@
         <v>1.6677562359617312E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5556,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5654,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5752,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -5884,7 +5850,7 @@
         <v>3.4690208154074267E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
@@ -5982,7 +5948,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -6080,7 +6046,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A42" s="15" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6147,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
@@ -6279,7 +6245,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -6377,7 +6343,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6441,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +6539,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6671,7 +6637,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -6769,7 +6735,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -6867,21 +6833,21 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.5">
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A52" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B54" s="17" t="s">
         <v>27</v>
       </c>
@@ -7079,7 +7045,7 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -7179,7 +7145,7 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -7279,7 +7245,7 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -7379,7 +7345,7 @@
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
@@ -7479,7 +7445,7 @@
       <c r="AH58" s="10"/>
       <c r="AI58" s="10"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7545,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -7679,7 +7645,7 @@
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A61" s="15" t="s">
         <v>34</v>
       </c>
@@ -7782,7 +7748,7 @@
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B62" s="8" t="s">
         <v>36</v>
       </c>
@@ -7880,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -7980,7 +7946,7 @@
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B64" s="8" t="s">
         <v>38</v>
       </c>
@@ -8078,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B65" s="8" t="s">
         <v>39</v>
       </c>
@@ -8178,7 +8144,7 @@
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8244,7 @@
       <c r="AH66" s="10"/>
       <c r="AI66" s="10"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -8378,7 +8344,7 @@
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B68" s="17" t="s">
         <v>33</v>
       </c>
@@ -8478,18 +8444,18 @@
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
     </row>
-    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A71" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -8587,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -8685,7 +8651,7 @@
         <v>2.2128660479462301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B74" s="8" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8749,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8847,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B76" s="8" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8945,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B78" s="8" t="s">
         <v>32</v>
       </c>
@@ -9175,7 +9141,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -9273,7 +9239,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A80" s="15" t="s">
         <v>42</v>
       </c>
@@ -9374,7 +9340,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -9472,7 +9438,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9536,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -9668,7 +9634,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B84" s="8" t="s">
         <v>39</v>
       </c>
@@ -9766,7 +9732,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
@@ -9864,7 +9830,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
@@ -9962,7 +9928,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -10060,7 +10026,7 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A90" s="19" t="s">
         <v>45</v>
       </c>
@@ -10068,12 +10034,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B91" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -10174,7 +10140,7 @@
         <v>80968.872000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A93" s="7" t="s">
         <v>27</v>
       </c>
@@ -10275,7 +10241,7 @@
         <v>44404.087</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10342,7 @@
         <v>33275.711000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -10477,7 +10443,7 @@
         <v>30943.995000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A96" s="7" t="s">
         <v>30</v>
       </c>
@@ -10578,7 +10544,7 @@
         <v>37861.674999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A97" s="7" t="s">
         <v>31</v>
       </c>
@@ -10679,7 +10645,7 @@
         <v>106564.087</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A98" s="7" t="s">
         <v>32</v>
       </c>
@@ -10780,7 +10746,7 @@
         <v>29992.21</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
@@ -10881,7 +10847,7 @@
         <v>38230.708999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B100" s="8" t="s">
         <v>35</v>
       </c>
@@ -10979,7 +10945,7 @@
         <v>35264.445999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
@@ -11077,7 +11043,7 @@
         <v>40569.968999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -11175,7 +11141,7 @@
         <v>35530.845999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
@@ -11273,7 +11239,7 @@
         <v>34065.201000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B104" s="8" t="s">
         <v>39</v>
       </c>
@@ -11371,7 +11337,7 @@
         <v>38625.667999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B105" s="8" t="s">
         <v>40</v>
       </c>
@@ -11469,7 +11435,7 @@
         <v>64958.861999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B106" s="8" t="s">
         <v>56</v>
       </c>
@@ -11567,7 +11533,7 @@
         <v>33809.059000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B107" s="8" t="s">
         <v>57</v>
       </c>
@@ -11665,7 +11631,7 @@
         <v>46370.635999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:33" s="20" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="19"/>
       <c r="B108" s="24" t="s">
         <v>58</v>
@@ -11702,7 +11668,7 @@
       <c r="AF108" s="25"/>
       <c r="AG108" s="25"/>
     </row>
-    <row r="109" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B109" s="8" t="s">
         <v>48</v>
       </c>
@@ -11800,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11898,7 +11864,7 @@
         <v>47893.864000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B111" s="8" t="s">
         <v>50</v>
       </c>
@@ -11996,7 +11962,7 @@
         <v>37207.881999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B112" s="8" t="s">
         <v>51</v>
       </c>
@@ -12094,7 +12060,7 @@
         <v>34765.69</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B113" s="8" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12158,7 @@
         <v>41727.862999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B114" s="8" t="s">
         <v>53</v>
       </c>
@@ -12290,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B115" s="8" t="s">
         <v>54</v>
       </c>
@@ -12388,7 +12354,7 @@
         <v>33879.688000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B116" s="8" t="s">
         <v>55</v>
       </c>
@@ -12486,7 +12452,7 @@
         <v>42019.215000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -12584,7 +12550,7 @@
         <v>41482.201000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12648,7 @@
         <v>46803.074000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -12780,7 +12746,7 @@
         <v>41604.519</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -12878,7 +12844,7 @@
         <v>39947.468000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B121" s="8" t="s">
         <v>39</v>
       </c>
@@ -12976,7 +12942,7 @@
         <v>44679.234000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B122" s="8" t="s">
         <v>40</v>
       </c>
@@ -13074,7 +13040,7 @@
         <v>71400.763999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -13172,7 +13138,7 @@
         <v>38742.171999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B124" s="8" t="s">
         <v>57</v>
       </c>
@@ -13270,7 +13236,7 @@
         <v>50426.273000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:33" s="20" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="19"/>
       <c r="B125" s="24" t="s">
         <v>59</v>
@@ -13307,7 +13273,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="25"/>
     </row>
-    <row r="126" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B126" s="8" t="s">
         <v>48</v>
       </c>
@@ -13405,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
@@ -13503,7 +13469,7 @@
         <v>54782.741999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B128" s="8" t="s">
         <v>50</v>
       </c>
@@ -13601,7 +13567,7 @@
         <v>42981.940999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B129" s="8" t="s">
         <v>51</v>
       </c>
@@ -13699,7 +13665,7 @@
         <v>42023.01</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B130" s="8" t="s">
         <v>52</v>
       </c>
@@ -13797,7 +13763,7 @@
         <v>51233.578000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B131" s="8" t="s">
         <v>53</v>
       </c>
@@ -13895,7 +13861,7 @@
         <v>118626.762</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B132" s="8" t="s">
         <v>54</v>
       </c>
@@ -13993,7 +13959,7 @@
         <v>42152.152999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B133" s="8" t="s">
         <v>55</v>
       </c>
@@ -14091,7 +14057,7 @@
         <v>52401.462999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B134" s="8" t="s">
         <v>35</v>
       </c>
@@ -14189,7 +14155,7 @@
         <v>48399.856999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
@@ -14287,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B136" s="8" t="s">
         <v>37</v>
       </c>
@@ -14385,7 +14351,7 @@
         <v>49296.616000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B137" s="8" t="s">
         <v>38</v>
       </c>
@@ -14483,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B138" s="8" t="s">
         <v>39</v>
       </c>
@@ -14581,7 +14547,7 @@
         <v>52104.9</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B139" s="8" t="s">
         <v>40</v>
       </c>
@@ -14679,7 +14645,7 @@
         <v>82666.054000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B140" s="8" t="s">
         <v>56</v>
       </c>
@@ -14777,7 +14743,7 @@
         <v>46721.110999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.5">
       <c r="B141" s="8" t="s">
         <v>57</v>
       </c>
@@ -14875,13 +14841,13 @@
         <v>61902.583999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A144" s="29"/>
       <c r="B144" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.5">
       <c r="C145" s="7">
         <v>2020</v>
       </c>
@@ -14976,7 +14942,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B146" s="8" t="s">
         <v>61</v>
       </c>
@@ -15074,7 +15040,7 @@
         <v>34223.758900205961</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B147" s="8" t="s">
         <v>62</v>
       </c>
@@ -15173,7 +15139,7 @@
       </c>
       <c r="AI147" s="31"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B148" s="8" t="s">
         <v>63</v>
       </c>
@@ -15271,13 +15237,13 @@
         <v>38083.262899259396</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A150" s="29"/>
       <c r="B150" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.5">
       <c r="C151" s="7">
         <v>2020</v>
       </c>
@@ -15372,7 +15338,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B152" s="30" t="s">
         <v>61</v>
       </c>
@@ -15470,7 +15436,7 @@
         <v>32757.347853553154</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B153" s="30" t="s">
         <v>62</v>
       </c>
@@ -15568,7 +15534,7 @@
         <v>36683.241130522299</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B154" s="8" t="s">
         <v>63</v>
       </c>
@@ -15666,7 +15632,7 @@
         <v>34512.987662623018</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.5">
       <c r="C157" s="7"/>
       <c r="E157" s="31"/>
     </row>
@@ -15684,12 +15650,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -15697,7 +15663,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -15708,7 +15674,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -15722,7 +15688,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15736,7 +15702,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15716,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15764,7 +15730,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15778,7 +15744,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -15786,7 +15752,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -15797,7 +15763,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -15814,7 +15780,7 @@
         <v>7.5308886519958804E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -15831,7 +15797,7 @@
         <v>0.17567573354125138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15848,7 +15814,7 @@
         <v>0.12991343885392936</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -15865,7 +15831,7 @@
         <v>0.59465216153992051</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -15882,7 +15848,7 @@
         <v>2.0904748863865383E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -15890,7 +15856,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -15901,7 +15867,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -15918,13 +15884,13 @@
         <v>33227.961912950093</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15933,7 +15899,7 @@
         <v>0.22203164776067363</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15908,7 @@
         <v>0.34617198659342718</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -15950,7 +15916,7 @@
         <v>49996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -15958,7 +15924,7 @@
         <v>39190.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -15966,7 +15932,7 @@
         <v>32444.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -15975,7 +15941,7 @@
         <v>0.21612929034322748</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -15999,17 +15965,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -16104,7 +16070,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -16130,7 +16096,7 @@
         <v>59241</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -16156,7 +16122,7 @@
         <v>69394</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -16182,12 +16148,12 @@
         <v>101008</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>2020</v>
       </c>
@@ -16282,7 +16248,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -16315,7 +16281,7 @@
         <v>53201.665332848308</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -16348,7 +16314,7 @@
         <v>62319.6158759588</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -16381,7 +16347,7 @@
         <v>90710.720817345107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -16414,7 +16380,7 @@
         <v>59927.367919640412</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16422,7 +16388,7 @@
         <v>74481.20175540229</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -16431,7 +16397,7 @@
         <v>0.19540277939602735</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -16439,7 +16405,7 @@
         <v>60169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -16462,22 +16428,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="2" max="2" width="23.46484375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -16485,12 +16451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -16501,7 +16467,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="37" t="s">
         <v>99</v>
       </c>
@@ -16510,13 +16476,13 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="39"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="37" t="s">
         <v>97</v>
       </c>
@@ -16527,7 +16493,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
         <f>'Heavy freight'!A15</f>
         <v>6-7</v>
@@ -16549,17 +16515,17 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="35" t="s">
         <v>86</v>
       </c>
@@ -16568,12 +16534,12 @@
         <v>124864</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
@@ -16586,7 +16552,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -16598,12 +16564,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -16611,7 +16577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
@@ -16642,44 +16608,44 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="37" t="s">
         <v>93</v>
       </c>
@@ -16690,7 +16656,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="34">
         <v>154</v>
       </c>
@@ -16701,30 +16667,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="34"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="37" t="s">
         <v>113</v>
       </c>
@@ -16735,12 +16701,12 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B19" t="str">
         <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
@@ -16752,7 +16718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="35" t="s">
         <v>88</v>
       </c>
@@ -16769,7 +16735,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="35" t="s">
         <v>87</v>
       </c>
@@ -16786,7 +16752,7 @@
         <v>25795</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="35" t="s">
         <v>86</v>
       </c>
@@ -16803,7 +16769,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="35">
         <v>8</v>
       </c>
@@ -16820,7 +16786,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="35" t="s">
         <v>108</v>
       </c>
@@ -16837,15 +16803,15 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>111</v>
       </c>
@@ -16859,7 +16825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="35" t="s">
         <v>88</v>
       </c>
@@ -16878,7 +16844,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="35" t="s">
         <v>87</v>
       </c>
@@ -16897,7 +16863,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="35" t="s">
         <v>86</v>
       </c>
@@ -16916,7 +16882,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="35">
         <v>8</v>
       </c>
@@ -16935,7 +16901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="35" t="s">
         <v>108</v>
       </c>
@@ -16947,7 +16913,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="37" t="s">
         <v>107</v>
       </c>
@@ -16958,17 +16924,17 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="35" t="s">
         <v>88</v>
       </c>
@@ -16988,7 +16954,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
@@ -17007,7 +16973,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="35" t="s">
         <v>86</v>
       </c>
@@ -17026,7 +16992,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="35">
         <v>8</v>
       </c>
@@ -17045,7 +17011,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="35" t="s">
         <v>105</v>
       </c>
@@ -17053,12 +17019,12 @@
         <v>201351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -17077,19 +17043,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -17189,8 +17155,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17314,8 +17340,88 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH2" s="5">
+        <f t="shared" ref="AH2:AH3" si="2">AG2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI2" s="5">
+        <f t="shared" ref="AI2:AI3" si="3">AH2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f t="shared" ref="AJ2:AJ3" si="4">AI2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK2" s="5">
+        <f t="shared" ref="AK2:AK3" si="5">AJ2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL2" s="5">
+        <f t="shared" ref="AL2:AL3" si="6">AK2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AM2" s="5">
+        <f t="shared" ref="AM2:AM3" si="7">AL2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AN2" s="5">
+        <f t="shared" ref="AN2:AN3" si="8">AM2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AO2" s="5">
+        <f t="shared" ref="AO2:AO3" si="9">AN2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AP2" s="5">
+        <f t="shared" ref="AP2:AP3" si="10">AO2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AQ2" s="5">
+        <f t="shared" ref="AQ2:AQ3" si="11">AP2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AR2" s="5">
+        <f t="shared" ref="AR2:AR3" si="12">AQ2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AS2" s="5">
+        <f t="shared" ref="AS2:AS3" si="13">AR2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AT2" s="5">
+        <f t="shared" ref="AT2:AT3" si="14">AS2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AU2" s="5">
+        <f t="shared" ref="AU2:AU3" si="15">AT2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AV2" s="5">
+        <f t="shared" ref="AV2:AV3" si="16">AU2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AW2" s="5">
+        <f t="shared" ref="AW2:AW3" si="17">AV2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AX2" s="5">
+        <f t="shared" ref="AX2:AX3" si="18">AW2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AY2" s="5">
+        <f t="shared" ref="AY2:AY3" si="19">AX2</f>
+        <v>0.5</v>
+      </c>
+      <c r="AZ2" s="5">
+        <f t="shared" ref="AZ2:BA3" si="20">AY2</f>
+        <v>0.5</v>
+      </c>
+      <c r="BA2" s="5">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -17328,43 +17434,43 @@
         <v>0.34797860071758074</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="2">C3</f>
+        <f t="shared" ref="D3:M3" si="21">C3</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N3" s="5">
@@ -17447,536 +17553,936 @@
         <f t="shared" si="1"/>
         <v>0.34797860071758074</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ3" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK3" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL3" s="5">
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM3" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN3" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO3" s="5">
+        <f t="shared" si="9"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP3" s="5">
+        <f t="shared" si="10"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ3" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR3" s="5">
+        <f t="shared" si="12"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS3" s="5">
+        <f t="shared" si="13"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT3" s="5">
+        <f t="shared" si="14"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU3" s="5">
+        <f t="shared" si="15"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV3" s="5">
+        <f t="shared" si="16"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW3" s="5">
+        <f t="shared" si="17"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX3" s="5">
+        <f t="shared" si="18"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY3" s="5">
+        <f t="shared" si="19"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ3" s="5">
+        <f t="shared" si="20"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA3" s="5">
+        <f t="shared" si="20"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:C7" si="3">B3</f>
+        <f t="shared" ref="B4:C7" si="22">B3</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:AG4" si="4">D3</f>
+        <f t="shared" ref="D4:AG4" si="23">D3</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH4" s="5">
+        <f t="shared" ref="AH4:BA4" si="24">AH3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA4" s="5">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C7" si="5">C4</f>
+        <f t="shared" ref="C5:C7" si="25">C4</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ref="D5:AG5" si="6">D4</f>
+        <f t="shared" ref="D5:AG5" si="26">D4</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="26"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" ref="AH5:BA5" si="27">AH4</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA5" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:AG6" si="7">D5</f>
+        <f t="shared" ref="D6:AG6" si="28">D5</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" ref="AH6:BA6" si="29">AH5</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA6" s="5">
+        <f t="shared" si="29"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="25"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:AG7" si="8">D6</f>
+        <f t="shared" ref="D7:AG7" si="30">D6</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" ref="AH7:BA7" si="31">AH6</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ7" s="5">
+        <f t="shared" si="31"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA7" s="5">
+        <f t="shared" si="31"/>
         <v>0.34797860071758074</v>
       </c>
     </row>
@@ -17990,19 +18496,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -18102,8 +18608,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH1">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18234,8 +18800,88 @@
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AH2" s="5">
+        <f t="shared" ref="AH2:AH3" si="1">AG2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AI2" s="5">
+        <f t="shared" ref="AI2:AI3" si="2">AH2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f t="shared" ref="AJ2:AJ3" si="3">AI2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AK2" s="5">
+        <f t="shared" ref="AK2:AK3" si="4">AJ2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AL2" s="5">
+        <f t="shared" ref="AL2:AL3" si="5">AK2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AM2" s="5">
+        <f t="shared" ref="AM2:AM3" si="6">AL2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AN2" s="5">
+        <f t="shared" ref="AN2:AN3" si="7">AM2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AO2" s="5">
+        <f t="shared" ref="AO2:AO3" si="8">AN2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AP2" s="5">
+        <f t="shared" ref="AP2:AP3" si="9">AO2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AQ2" s="5">
+        <f t="shared" ref="AQ2:AQ3" si="10">AP2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AR2" s="5">
+        <f t="shared" ref="AR2:AR3" si="11">AQ2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AS2" s="5">
+        <f t="shared" ref="AS2:AS3" si="12">AR2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AT2" s="5">
+        <f t="shared" ref="AT2:AT3" si="13">AS2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AU2" s="5">
+        <f t="shared" ref="AU2:AU3" si="14">AT2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AV2" s="5">
+        <f t="shared" ref="AV2:AV3" si="15">AU2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AW2" s="5">
+        <f t="shared" ref="AW2:AW3" si="16">AV2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AX2" s="5">
+        <f t="shared" ref="AX2:AX3" si="17">AW2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AY2" s="5">
+        <f t="shared" ref="AY2:AY3" si="18">AX2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AZ2" s="5">
+        <f t="shared" ref="AZ2:AZ3" si="19">AY2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="BA2" s="5">
+        <f t="shared" ref="BA2:BA3" si="20">AZ2</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -18248,655 +18894,1055 @@
         <v>0.34797860071758074</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="1">C3</f>
+        <f t="shared" ref="D3:M3" si="21">C3</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="E3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="21"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:AC3" si="22">M3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="22"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AG3" si="23">AC3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="23"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="23"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="23"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH3" s="5">
         <f t="shared" si="1"/>
         <v>0.34797860071758074</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:AC3" si="2">M3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="AI3" s="5">
         <f t="shared" si="2"/>
         <v>0.34797860071758074</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE3" s="5">
+      <c r="AJ3" s="5">
         <f t="shared" si="3"/>
         <v>0.34797860071758074</v>
       </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AK3" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL3" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM3" s="5">
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN3" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO3" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP3" s="5">
+        <f t="shared" si="9"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ3" s="5">
+        <f t="shared" si="10"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR3" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS3" s="5">
+        <f t="shared" si="12"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT3" s="5">
+        <f t="shared" si="13"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU3" s="5">
+        <f t="shared" si="14"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV3" s="5">
+        <f t="shared" si="15"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW3" s="5">
+        <f t="shared" si="16"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX3" s="5">
+        <f t="shared" si="17"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY3" s="5">
+        <f t="shared" si="18"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ3" s="5">
+        <f t="shared" si="19"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA3" s="5">
+        <f t="shared" si="20"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:AG7" si="4">B3</f>
+        <f t="shared" ref="B4:AG7" si="24">B3</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH4" s="5">
+        <f t="shared" ref="AH4:BA4" si="25">AH3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA4" s="5">
+        <f t="shared" si="25"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH5" s="5">
+        <f t="shared" ref="AH5:BA5" si="26">AH4</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA5" s="5">
+        <f t="shared" si="26"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" ref="AH6:BA6" si="27">AH5</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA6" s="5">
+        <f t="shared" si="27"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
         <v>0.34797860071758074</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="24"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" ref="AH7:BA7" si="28">AH6</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AK7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AL7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AM7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AN7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AO7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AP7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AR7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AS7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AT7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AU7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AV7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AW7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AX7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AY7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AZ7" s="5">
+        <f t="shared" si="28"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="BA7" s="5">
+        <f t="shared" si="28"/>
         <v>0.34797860071758074</v>
       </c>
     </row>
